--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Company" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Contact" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Country" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="AllTable" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,9 +23,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">01500597700EF</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfreds Futterkiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro comercial Moctezuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernst Handel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island Trading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laughing Bacchus Winecellars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magazzini Alimentari Riuniti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Anders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Chang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roland Mendel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helen Bennett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoshi Tannamuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanni Rovelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
   </si>
 </sst>
 </file>
@@ -33,7 +96,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -116,6 +179,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -265,7 +334,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -276,6 +345,14 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -373,56 +450,68 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
@@ -450,4 +539,236 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t xml:space="preserve">Company</t>
   </si>
@@ -46,6 +46,21 @@
     <t xml:space="preserve">Magazzini Alimentari Riuniti</t>
   </si>
   <si>
+    <t xml:space="preserve">Eliran Duveen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdfdh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h5f23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdgvr dsrgr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/.,/rty5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contact</t>
   </si>
   <si>
@@ -67,6 +82,18 @@
     <t xml:space="preserve">Giovanni Rovelli</t>
   </si>
   <si>
+    <t xml:space="preserve">sgdsgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'lih[oi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs;kljdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f234thh6;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Country</t>
   </si>
   <si>
@@ -86,6 +113,15 @@
   </si>
   <si>
     <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhfjh345</t>
   </si>
 </sst>
 </file>
@@ -448,10 +484,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="A13 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -516,19 +552,45 @@
       <c r="C7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -546,10 +608,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -560,37 +622,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -609,10 +706,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -623,37 +720,67 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +802,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A13 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -690,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,10 +828,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,10 +839,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,10 +861,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,10 +872,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,10 +883,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Contact" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Country" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="AllTable" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="OriginalTable" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t xml:space="preserve">Company</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">nhfjh345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -388,6 +391,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -484,10 +491,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="A13 A14"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -590,6 +597,11 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -608,10 +620,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A13 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -688,6 +700,11 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -706,10 +723,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -781,6 +798,16 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -802,7 +829,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A13 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t xml:space="preserve">Company</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">nhfjh345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
   </si>
 </sst>
 </file>
@@ -622,8 +619,8 @@
   </sheetPr>
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A15 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -725,7 +722,7 @@
   </sheetPr>
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -802,12 +799,12 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +826,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A15 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" state="visible" r:id="rId2"/>
@@ -132,7 +132,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -215,12 +215,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -379,12 +373,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -490,91 +484,91 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -592,7 +586,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -620,82 +614,82 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A15 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A2 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="15.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -722,88 +716,88 @@
   </sheetPr>
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="A2 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -826,90 +820,90 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A15 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="26.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
